--- a/GoalSetter.xlsx
+++ b/GoalSetter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haniff\Documents\GeneralProgramming\Diversified_Projects\AllPicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B666592D-4635-4448-BD68-48C1F8D77D4C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3812CFE6-392F-4770-948D-5AC2DF52FD05}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9496" windowHeight="9700" xr2:uid="{ECA25019-62BB-41C6-B5EB-53C202D56315}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -586,8 +586,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43313</v>
+      <c r="A11" s="2">
+        <v>43327</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -596,14 +596,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43313</v>
+        <v>43328</v>
       </c>
       <c r="B12">
         <v>11</v>

--- a/GoalSetter.xlsx
+++ b/GoalSetter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haniff\Documents\GeneralProgramming\Diversified_Projects\AllPicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3812CFE6-392F-4770-948D-5AC2DF52FD05}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{70B36316-DEB4-4429-BE10-AE210374C57A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9496" windowHeight="9700" xr2:uid="{ECA25019-62BB-41C6-B5EB-53C202D56315}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -449,8 +449,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43313</v>
+      <c r="A3" s="2">
+        <v>43330</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -459,9 +459,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" t="str">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <f t="shared" ref="E3:E21" si="1">IF(ISBLANK(D3),"",IF(D3&lt;B3,0,MIN(B3,D3)))</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,9 +618,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,9 +637,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -673,7 +682,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43313</v>
+        <v>43331</v>
       </c>
       <c r="B16">
         <v>15</v>

--- a/GoalSetter.xlsx
+++ b/GoalSetter.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haniff\Documents\GeneralProgramming\Diversified_Projects\AllPicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{70B36316-DEB4-4429-BE10-AE210374C57A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D1FAEE65-4D19-4D2E-9874-050D6F24D9B3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9496" windowHeight="9700" xr2:uid="{ECA25019-62BB-41C6-B5EB-53C202D56315}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$24</definedName>
+  </definedNames>
   <calcPr calcId="162913" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD94296-5B72-49FE-8AF1-32FBA3F23D50}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -444,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f>IF(ISBLANK(D2),"",IF(D2&lt;B2,0,MIN(B2,D2)))</f>
+        <f>IF(ISBLANK(D2),"",IF(D2&lt;B2,0,MIN(B2,D2)^1.2))</f>
         <v>1</v>
       </c>
     </row>
@@ -463,12 +466,12 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E21" si="1">IF(ISBLANK(D3),"",IF(D3&lt;B3,0,MIN(B3,D3)))</f>
-        <v>2</v>
+        <f t="shared" ref="E3:E21" si="1">IF(ISBLANK(D3),"",IF(D3&lt;B3,0,MIN(B3,D3)^1.2))</f>
+        <v>2.2973967099940702</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>43313</v>
       </c>
       <c r="B4">
@@ -478,9 +481,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>3.7371928188465522</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -547,7 +553,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10.330412131161864</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -585,7 +591,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>13.966610165238238</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -604,11 +610,11 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15.848931924611136</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>43328</v>
       </c>
       <c r="B12">
@@ -627,7 +633,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>43313</v>
       </c>
       <c r="B13">
@@ -646,8 +652,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43313</v>
+      <c r="A14" s="2">
+        <v>43336</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -656,13 +662,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>21.713609480352535</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>43313</v>
       </c>
       <c r="B15">
@@ -681,7 +690,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>43331</v>
       </c>
       <c r="B16">
@@ -691,14 +700,17 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>25.781578913812183</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>43313</v>
+      <c r="A17" s="2">
+        <v>43332</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -707,14 +719,17 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>43313</v>
+      <c r="A18" s="2">
+        <v>43333</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -723,14 +738,17 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>43313</v>
+      <c r="A19" s="2">
+        <v>43334</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -739,9 +757,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -777,9 +798,190 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2">
+        <v>43337</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22" si="2">FLOOR(B22/7,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22" si="3">IF(ISBLANK(D22),"",IF(D22&lt;B22,0,MIN(B22,D22)^1.2))</f>
+        <v>21.713609480352535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43338</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23" si="4">FLOOR(B23/7,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23" si="5">IF(ISBLANK(D23),"",IF(D23&lt;B23,0,MIN(B23,D23)^1.2))</f>
+        <v>21.713609480352535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43339</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24" si="6">FLOOR(B24/7,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24" si="7">IF(ISBLANK(D24),"",IF(D24&lt;B24,0,MIN(B24,D24)^1.2))</f>
+        <v>15.848931924611136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>43340</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25" si="8">FLOOR(B25/7,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25" si="9">IF(ISBLANK(D25),"",IF(D25&lt;B25,0,MIN(B25,D25)^1.2))</f>
+        <v>13.966610165238238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43342</v>
+      </c>
+      <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26" si="10">FLOOR(B26/7,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26" si="11">IF(ISBLANK(D26),"",IF(D26&lt;B26,0,MIN(B26,D26)^1.2))</f>
+        <v>21.713609480352535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27" si="12">FLOOR(B27/7,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27" si="13">IF(ISBLANK(D27),"",IF(D27&lt;B27,0,MIN(B27,D27)^1.2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28" si="14">FLOOR(B28/7,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28" si="15">IF(ISBLANK(D28),"",IF(D28&lt;B28,0,MIN(B28,D28)^1.2))</f>
+        <v>10.330412131161864</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43345</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C31" si="16">FLOOR(B29/7,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E30" si="17">IF(ISBLANK(D29),"",IF(D29&lt;B29,0,MIN(B29,D29)^1.2))</f>
+        <v>15.848931924611136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43346</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="17"/>
+        <v>13.966610165238238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43347</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E24" xr:uid="{1D5F942C-08A8-4F90-80E3-72E65C721969}"/>
   <sortState ref="A2:E21">
     <sortCondition descending="1" ref="A2:A21"/>
   </sortState>

--- a/GoalSetter.xlsx
+++ b/GoalSetter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haniff\Documents\GeneralProgramming\Diversified_Projects\AllPicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D1FAEE65-4D19-4D2E-9874-050D6F24D9B3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A1E7B0-2896-4B72-B0BF-2277B6A8C3BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9496" windowHeight="9700" xr2:uid="{ECA25019-62BB-41C6-B5EB-53C202D56315}"/>
   </bookViews>
@@ -49,6 +49,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="ddd\ d\-mmm\-yy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,8 +89,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,21 +405,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD94296-5B72-49FE-8AF1-32FBA3F23D50}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -938,14 +941,14 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:C31" si="16">FLOOR(B29/7,1)</f>
+        <f t="shared" ref="C29:C43" si="16">FLOOR(B29/7,1)</f>
         <v>1</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29:E30" si="17">IF(ISBLANK(D29),"",IF(D29&lt;B29,0,MIN(B29,D29)^1.2))</f>
+        <f t="shared" ref="E29:E42" si="17">IF(ISBLANK(D29),"",IF(D29&lt;B29,0,MIN(B29,D29)^1.2))</f>
         <v>15.848931924611136</v>
       </c>
     </row>
@@ -976,6 +979,234 @@
         <v>10</v>
       </c>
       <c r="C31">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="17"/>
+        <v>15.848931924611136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43348</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43349</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43350</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="17"/>
+        <v>13.966610165238238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="17"/>
+        <v>10.330412131161864</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43352</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="17"/>
+        <v>10.330412131161864</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43353</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43354</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43355</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43356</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43357</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="17"/>
+        <v>12.125732532083184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43358</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
@@ -986,5 +1217,6 @@
     <sortCondition descending="1" ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GoalSetter.xlsx
+++ b/GoalSetter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haniff\Documents\GeneralProgramming\Diversified_Projects\AllPicker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A1E7B0-2896-4B72-B0BF-2277B6A8C3BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504F0480-9A0C-4CBD-A045-43FD15036FBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9496" windowHeight="9700" xr2:uid="{ECA25019-62BB-41C6-B5EB-53C202D56315}"/>
   </bookViews>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD94296-5B72-49FE-8AF1-32FBA3F23D50}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f>IF(ISBLANK(D2),"",IF(D2&lt;B2,0,MIN(B2,D2)^1.2))</f>
+        <f>IF(ISBLANK(D2),"",IF(D2&lt;B2,(D2/4),MIN(B2,D2)^1.2))</f>
         <v>1</v>
       </c>
     </row>
@@ -469,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E21" si="1">IF(ISBLANK(D3),"",IF(D3&lt;B3,0,MIN(B3,D3)^1.2))</f>
+        <f t="shared" ref="E3:E59" si="1">IF(ISBLANK(D3),"",IF(D3&lt;B3,(D3/4),MIN(B3,D3)^1.2))</f>
         <v>2.2973967099940702</v>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -765,7 +765,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22" si="3">IF(ISBLANK(D22),"",IF(D22&lt;B22,0,MIN(B22,D22)^1.2))</f>
+        <f t="shared" si="1"/>
         <v>21.713609480352535</v>
       </c>
     </row>
@@ -827,14 +827,14 @@
         <v>13</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23" si="4">FLOOR(B23/7,1)</f>
+        <f t="shared" ref="C23" si="3">FLOOR(B23/7,1)</f>
         <v>1</v>
       </c>
       <c r="D23">
         <v>16</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23" si="5">IF(ISBLANK(D23),"",IF(D23&lt;B23,0,MIN(B23,D23)^1.2))</f>
+        <f t="shared" si="1"/>
         <v>21.713609480352535</v>
       </c>
     </row>
@@ -846,14 +846,14 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24" si="6">FLOOR(B24/7,1)</f>
+        <f t="shared" ref="C24" si="4">FLOOR(B24/7,1)</f>
         <v>1</v>
       </c>
       <c r="D24">
         <v>11</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24" si="7">IF(ISBLANK(D24),"",IF(D24&lt;B24,0,MIN(B24,D24)^1.2))</f>
+        <f t="shared" si="1"/>
         <v>15.848931924611136</v>
       </c>
     </row>
@@ -865,14 +865,14 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25" si="8">FLOOR(B25/7,1)</f>
+        <f t="shared" ref="C25" si="5">FLOOR(B25/7,1)</f>
         <v>1</v>
       </c>
       <c r="D25">
         <v>11</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25" si="9">IF(ISBLANK(D25),"",IF(D25&lt;B25,0,MIN(B25,D25)^1.2))</f>
+        <f t="shared" si="1"/>
         <v>13.966610165238238</v>
       </c>
     </row>
@@ -884,14 +884,14 @@
         <v>13</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26" si="10">FLOOR(B26/7,1)</f>
+        <f t="shared" ref="C26" si="6">FLOOR(B26/7,1)</f>
         <v>1</v>
       </c>
       <c r="D26">
         <v>13</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26" si="11">IF(ISBLANK(D26),"",IF(D26&lt;B26,0,MIN(B26,D26)^1.2))</f>
+        <f t="shared" si="1"/>
         <v>21.713609480352535</v>
       </c>
     </row>
@@ -903,15 +903,15 @@
         <v>13</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27" si="12">FLOOR(B27/7,1)</f>
+        <f t="shared" ref="C27" si="7">FLOOR(B27/7,1)</f>
         <v>1</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27" si="13">IF(ISBLANK(D27),"",IF(D27&lt;B27,0,MIN(B27,D27)^1.2))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -922,14 +922,14 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28" si="14">FLOOR(B28/7,1)</f>
+        <f t="shared" ref="C28" si="8">FLOOR(B28/7,1)</f>
         <v>1</v>
       </c>
       <c r="D28">
         <v>11</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28" si="15">IF(ISBLANK(D28),"",IF(D28&lt;B28,0,MIN(B28,D28)^1.2))</f>
+        <f t="shared" si="1"/>
         <v>10.330412131161864</v>
       </c>
     </row>
@@ -941,14 +941,14 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:C43" si="16">FLOOR(B29/7,1)</f>
+        <f t="shared" ref="C29:C60" si="9">FLOOR(B29/7,1)</f>
         <v>1</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29:E42" si="17">IF(ISBLANK(D29),"",IF(D29&lt;B29,0,MIN(B29,D29)^1.2))</f>
+        <f t="shared" si="1"/>
         <v>15.848931924611136</v>
       </c>
     </row>
@@ -960,14 +960,14 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D30">
         <v>11</v>
       </c>
       <c r="E30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>13.966610165238238</v>
       </c>
     </row>
@@ -979,14 +979,14 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D31">
         <v>10</v>
       </c>
       <c r="E31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>15.848931924611136</v>
       </c>
     </row>
@@ -998,15 +998,15 @@
         <v>13</v>
       </c>
       <c r="C32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D32">
         <v>7</v>
       </c>
       <c r="E32">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,15 +1017,15 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1036,14 +1036,14 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D34">
         <v>21</v>
       </c>
       <c r="E34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>13.966610165238238</v>
       </c>
     </row>
@@ -1055,14 +1055,14 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D35">
         <v>13</v>
       </c>
       <c r="E35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>10.330412131161864</v>
       </c>
     </row>
@@ -1074,14 +1074,14 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D36">
         <v>11</v>
       </c>
       <c r="E36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>10.330412131161864</v>
       </c>
     </row>
@@ -1093,15 +1093,15 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,15 +1112,15 @@
         <v>4</v>
       </c>
       <c r="C38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,15 +1131,15 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D39">
         <v>10</v>
       </c>
       <c r="E39">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1150,14 +1150,14 @@
         <v>13</v>
       </c>
       <c r="C40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1169,14 +1169,14 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D41">
         <v>8</v>
       </c>
       <c r="E41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>12.125732532083184</v>
       </c>
     </row>
@@ -1188,15 +1188,15 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D42">
         <v>4</v>
       </c>
       <c r="E42">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,330 @@
         <v>12</v>
       </c>
       <c r="C43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>19.725021954206706</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43360</v>
+      </c>
+      <c r="B44">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43361</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43362</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43363</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>10.330412131161864</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43364</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>12.125732532083184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43365</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>10.330412131161864</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43366</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>6.8986483073060727</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43367</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>12.125732532083184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43369</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>13.966610165238238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43370</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43371</v>
+      </c>
+      <c r="B54">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>12.125732532083184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>17</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>13.966610165238238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>13.966610165238238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43375</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>10.330412131161864</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43376</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>12.125732532083184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43377</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
